--- a/JhanviLogin/Default.xlsx
+++ b/JhanviLogin/Default.xlsx
@@ -175,9 +175,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -188,7 +186,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -529,10 +529,10 @@
       </c>
     </row>
     <row>
-      <c s="3">
+      <c s="2">
         <v>8608428737</v>
       </c>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>1</v>
       </c>
     </row>
